--- a/medicine/Sexualité et sexologie/Joseph_Mortimer_Granville/Joseph_Mortimer_Granville.xlsx
+++ b/medicine/Sexualité et sexologie/Joseph_Mortimer_Granville/Joseph_Mortimer_Granville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Mortimer Granville, né en 1833 et mort en 1900, est un médecin anglais membre de l'Église épiscopale. Auteur de nombreux ouvrages médicaux et de vulgarisation, son nom est resté comme celui de l'inventeur du vibromasseur nommé le marteau de Granville, objet destiné à calmer les douleurs musculaires, et dont l'usage est rapidement détourné pour pratiquer la masturbation. Son histoire est largement romancée dans le film Oh my God!, qui en fait un jeune médecin traitant des femmes hystériques[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Mortimer Granville, né en 1833 et mort en 1900, est un médecin anglais membre de l'Église épiscopale. Auteur de nombreux ouvrages médicaux et de vulgarisation, son nom est resté comme celui de l'inventeur du vibromasseur nommé le marteau de Granville, objet destiné à calmer les douleurs musculaires, et dont l'usage est rapidement détourné pour pratiquer la masturbation. Son histoire est largement romancée dans le film Oh my God!, qui en fait un jeune médecin traitant des femmes hystériques.
 </t>
         </is>
       </c>
